--- a/biology/Zoologie/Formation_de_Dinosaur_Park/Formation_de_Dinosaur_Park.xlsx
+++ b/biology/Zoologie/Formation_de_Dinosaur_Park/Formation_de_Dinosaur_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Formation de Dinosaur Park (anglais : Dinosaur Park Formation) est une unité géologique du Crétacé supérieur situé en Alberta et au Saskatchewan, au Canada. Elle date du Campanien et surmonte la Formation d'Oldman et est elle-même surmontée par la Formation de Bearpaw. C'est l'unité la plus récente du Groupe de Belly River. Elle est connue pour ses nombreux ossements de dinosaures comme Daspletosaurus, Chasmosaurus et Corythosaurus. De nombreuses espèces célèbres de dinosaures ont été identifiées pour la première fois à cet endroit telles Parasaurolophus ou Styracosaurus.
